--- a/Planilla excel H.N S.A.-/SETIEMBRE 2016.-/ALCOSUR.-.xlsx
+++ b/Planilla excel H.N S.A.-/SETIEMBRE 2016.-/ALCOSUR.-.xlsx
@@ -487,8 +487,8 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="K:M"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
